--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00. Data Analysis - Project\New Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76D4F30-2B4F-46D7-A458-7A9BF1A62294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54E40F6-D19B-4F29-8D35-70E652FA4AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3552" yWindow="1272" windowWidth="17280" windowHeight="10968" xr2:uid="{976F4667-2F32-4578-8792-06CF19D541D4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>column 1</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>column 2</t>
+  </si>
+  <si>
+    <t>def</t>
   </si>
 </sst>
 </file>
@@ -391,44 +394,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093D6A45-67D1-41B9-883A-7AB7CF317723}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>300</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
